--- a/data/electricity_generation.xlsx
+++ b/data/electricity_generation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB420A-B203-4535-9101-F168002A25FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F562C2-E054-4EF1-95E3-316A6A2844BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3230" windowWidth="21600" windowHeight="11390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="3" r:id="rId1"/>
@@ -872,26 +872,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="H455" sqref="H455"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="12" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.81640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.1796875" style="6"/>
-    <col min="9" max="9" width="12" style="6" customWidth="1"/>
-    <col min="10" max="10" width="46.81640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="27.26953125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="24.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="12" style="6" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2019</v>
       </c>
@@ -925,13 +925,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5">
-        <v>2686990</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>683055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2019</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1623366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -965,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5">
-        <v>901196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2686990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2019</v>
       </c>
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5">
-        <v>683055</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-3902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2019</v>
       </c>
@@ -1005,13 +1005,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F6" s="5">
-        <v>142591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2019</v>
       </c>
@@ -1025,13 +1025,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5">
-        <v>37547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>901196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2019</v>
       </c>
@@ -1045,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2019</v>
       </c>
@@ -1065,13 +1065,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F9" s="5">
-        <v>-3902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2019</v>
       </c>
@@ -1085,13 +1085,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5">
-        <v>57197370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26655068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -1105,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F11" s="5">
-        <v>43656862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11405216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2019</v>
       </c>
@@ -1125,13 +1125,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="5">
-        <v>26655068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57197370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2019</v>
       </c>
@@ -1145,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5">
-        <v>11405216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43656862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2019</v>
       </c>
@@ -1165,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5">
-        <v>3316975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2019</v>
       </c>
@@ -1185,13 +1185,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="5">
-        <v>384939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2019</v>
       </c>
@@ -1205,13 +1205,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5">
-        <v>40482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2019</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>19920</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2019</v>
       </c>
@@ -1245,13 +1245,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>384939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2019</v>
       </c>
@@ -1265,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F19" s="5">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3316975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2019</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>23313201</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2019</v>
       </c>
@@ -1305,13 +1305,13 @@
         <v>5</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F21" s="5">
-        <v>21772400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4134698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2019</v>
       </c>
@@ -1325,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" s="5">
-        <v>13574947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21772400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2019</v>
       </c>
@@ -1345,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5">
-        <v>4134698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13574947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2019</v>
       </c>
@@ -1365,13 +1365,13 @@
         <v>5</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F24" s="5">
-        <v>1241532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2019</v>
       </c>
@@ -1385,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F25" s="5">
-        <v>210333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2019</v>
       </c>
@@ -1405,13 +1405,13 @@
         <v>5</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F26" s="5">
-        <v>93083</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2019</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>50722</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2019</v>
       </c>
@@ -1445,13 +1445,13 @@
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F28" s="5">
-        <v>47144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>210333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2019</v>
       </c>
@@ -1465,13 +1465,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F29" s="5">
-        <v>4839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1241532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2019</v>
       </c>
@@ -1485,13 +1485,13 @@
         <v>5</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="5">
-        <v>46084367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23217974</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2019</v>
       </c>
@@ -1505,13 +1505,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F31" s="5">
-        <v>31920368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6204439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2019</v>
       </c>
@@ -1525,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" s="5">
-        <v>23217974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46084367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2019</v>
       </c>
@@ -1545,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F33" s="5">
-        <v>6204439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31920368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2019</v>
       </c>
@@ -1565,13 +1565,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F34" s="5">
-        <v>5278019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-4442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2019</v>
       </c>
@@ -1585,13 +1585,13 @@
         <v>5</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F35" s="5">
-        <v>554374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2019</v>
       </c>
@@ -1605,13 +1605,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F36" s="5">
-        <v>200001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2019</v>
       </c>
@@ -1625,13 +1625,13 @@
         <v>5</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F37" s="5">
-        <v>63748</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2019</v>
       </c>
@@ -1645,13 +1645,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F38" s="5">
-        <v>30666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5278019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2019</v>
       </c>
@@ -1665,13 +1665,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" s="5">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>554374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2019</v>
       </c>
@@ -1685,13 +1685,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F40" s="5">
-        <v>-4442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2019</v>
       </c>
@@ -1705,13 +1705,13 @@
         <v>5</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" s="5">
-        <v>85840775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>240456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2019</v>
       </c>
@@ -1725,13 +1725,13 @@
         <v>5</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F42" s="5">
-        <v>38354769</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10914107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2019</v>
       </c>
@@ -1745,13 +1745,13 @@
         <v>5</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F43" s="5">
-        <v>28331513</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38354769</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2019</v>
       </c>
@@ -1765,13 +1765,13 @@
         <v>5</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F44" s="5">
-        <v>16165384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85840775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2019</v>
       </c>
@@ -1785,13 +1785,13 @@
         <v>5</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F45" s="5">
-        <v>13735069</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16165384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2019</v>
       </c>
@@ -1805,13 +1805,13 @@
         <v>5</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F46" s="5">
-        <v>10914107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>765025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2019</v>
       </c>
@@ -1825,13 +1825,13 @@
         <v>5</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F47" s="5">
-        <v>3217940</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2722625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2019</v>
       </c>
@@ -1845,13 +1845,13 @@
         <v>5</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F48" s="5">
-        <v>2722625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1476205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2019</v>
       </c>
@@ -1865,13 +1865,13 @@
         <v>5</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" s="5">
-        <v>1476205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2019</v>
       </c>
@@ -1885,13 +1885,13 @@
         <v>5</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F50" s="5">
-        <v>765025</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-30615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2019</v>
       </c>
@@ -1905,13 +1905,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="F51" s="5">
-        <v>240456</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28331513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2019</v>
       </c>
@@ -1925,13 +1925,13 @@
         <v>5</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F52" s="5">
-        <v>50953</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13735069</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2019</v>
       </c>
@@ -1945,13 +1945,13 @@
         <v>5</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F53" s="5">
-        <v>-30615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3217940</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2019</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>25320503</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2019</v>
       </c>
@@ -1985,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F55" s="5">
-        <v>17097116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1811001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2019</v>
       </c>
@@ -2005,13 +2005,13 @@
         <v>5</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F56" s="5">
-        <v>10852376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17097116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2019</v>
       </c>
@@ -2025,13 +2025,13 @@
         <v>5</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F57" s="5">
-        <v>1811001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2019</v>
       </c>
@@ -2045,13 +2045,13 @@
         <v>5</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F58" s="5">
-        <v>1218220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2019</v>
       </c>
@@ -2065,13 +2065,13 @@
         <v>5</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F59" s="5">
-        <v>88528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7962</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2019</v>
       </c>
@@ -2085,13 +2085,13 @@
         <v>5</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F60" s="5">
-        <v>73515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-191882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2019</v>
       </c>
@@ -2105,13 +2105,13 @@
         <v>5</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F61" s="5">
-        <v>60396</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1218220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2019</v>
       </c>
@@ -2125,13 +2125,13 @@
         <v>5</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F62" s="5">
-        <v>7962</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10852376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2019</v>
       </c>
@@ -2145,13 +2145,13 @@
         <v>5</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F63" s="5">
-        <v>-191882</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2019</v>
       </c>
@@ -2165,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F64" s="5">
-        <v>21343095</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2019</v>
       </c>
@@ -2185,13 +2185,13 @@
         <v>5</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F65" s="5">
-        <v>16733398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>427917</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2019</v>
       </c>
@@ -2205,13 +2205,13 @@
         <v>5</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F66" s="5">
-        <v>578186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21343095</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2019</v>
       </c>
@@ -2225,13 +2225,13 @@
         <v>5</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F67" s="5">
-        <v>480951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16733398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2019</v>
       </c>
@@ -2245,13 +2245,13 @@
         <v>5</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F68" s="5">
-        <v>427917</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>578186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2019</v>
       </c>
@@ -2265,13 +2265,13 @@
         <v>5</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F69" s="5">
-        <v>268419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>480951</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2019</v>
       </c>
@@ -2285,13 +2285,13 @@
         <v>5</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F70" s="5">
-        <v>138453</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2019</v>
       </c>
@@ -2305,13 +2305,13 @@
         <v>5</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F71" s="5">
-        <v>53052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2019</v>
       </c>
@@ -2325,13 +2325,13 @@
         <v>5</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F72" s="5">
-        <v>12215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2019</v>
       </c>
@@ -2345,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F73" s="5">
-        <v>12196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2019</v>
       </c>
@@ -2365,13 +2365,13 @@
         <v>5</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F74" s="5">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>268419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2019</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>110123</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2019</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>55128</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2019</v>
       </c>
@@ -2425,13 +2425,13 @@
         <v>5</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F77" s="5">
-        <v>8829</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>2019</v>
       </c>
@@ -2445,13 +2445,13 @@
         <v>5</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F78" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2019</v>
       </c>
@@ -2465,13 +2465,13 @@
         <v>5</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F79" s="5">
-        <v>4806239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>119120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>2019</v>
       </c>
@@ -2485,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F80" s="5">
-        <v>193994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4806239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>2019</v>
       </c>
@@ -2505,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F81" s="5">
-        <v>119120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>2019</v>
       </c>
@@ -2525,13 +2525,13 @@
         <v>5</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F82" s="5">
-        <v>61389</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>2019</v>
       </c>
@@ -2545,13 +2545,13 @@
         <v>5</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F83" s="5">
-        <v>53807</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>2019</v>
       </c>
@@ -2565,13 +2565,13 @@
         <v>5</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F84" s="5">
-        <v>18718</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>2019</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>5270</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>2019</v>
       </c>
@@ -2605,13 +2605,13 @@
         <v>5</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F86" s="5">
-        <v>182006842</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21248194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>2019</v>
       </c>
@@ -2625,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F87" s="5">
-        <v>29108066</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>209882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>2019</v>
       </c>
@@ -2645,13 +2645,13 @@
         <v>5</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F88" s="5">
-        <v>21248194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>182006842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>2019</v>
       </c>
@@ -2665,13 +2665,13 @@
         <v>5</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F89" s="5">
-        <v>3901445</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29108066</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>2019</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>3154479</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>2019</v>
       </c>
@@ -2705,13 +2705,13 @@
         <v>5</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F91" s="5">
-        <v>2292951</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2156182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>2019</v>
       </c>
@@ -2725,13 +2725,13 @@
         <v>5</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F92" s="5">
-        <v>2156182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>2019</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>1525284</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>2019</v>
       </c>
@@ -2765,13 +2765,13 @@
         <v>5</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F94" s="5">
-        <v>209882</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3901445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>2019</v>
       </c>
@@ -2785,13 +2785,13 @@
         <v>5</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F95" s="5">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2292951</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>2019</v>
       </c>
@@ -2805,13 +2805,13 @@
         <v>5</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F96" s="5">
-        <v>58619997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25245308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>2019</v>
       </c>
@@ -2825,13 +2825,13 @@
         <v>5</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F97" s="5">
-        <v>33591181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3956224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>2019</v>
       </c>
@@ -2845,13 +2845,13 @@
         <v>5</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F98" s="5">
-        <v>25245308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58619997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>2019</v>
       </c>
@@ -2865,13 +2865,13 @@
         <v>5</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F99" s="5">
-        <v>5057552</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33591181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>2019</v>
       </c>
@@ -2885,13 +2885,13 @@
         <v>5</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F100" s="5">
-        <v>3956224</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93780</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>2019</v>
       </c>
@@ -2905,13 +2905,13 @@
         <v>5</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F101" s="5">
-        <v>2160770</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>2019</v>
       </c>
@@ -2925,13 +2925,13 @@
         <v>5</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F102" s="5">
-        <v>318140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>247308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>2019</v>
       </c>
@@ -2945,13 +2945,13 @@
         <v>5</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F103" s="5">
-        <v>247308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-598689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>2019</v>
       </c>
@@ -2965,13 +2965,13 @@
         <v>5</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F104" s="5">
-        <v>93780</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2160770</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>2019</v>
       </c>
@@ -2985,13 +2985,13 @@
         <v>5</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F105" s="5">
-        <v>-598689</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5057552</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>2019</v>
       </c>
@@ -3005,13 +3005,13 @@
         <v>5</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F106" s="5">
-        <v>6864169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1301946</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>2019</v>
       </c>
@@ -3025,13 +3025,13 @@
         <v>5</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F107" s="5">
-        <v>1301946</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>2019</v>
       </c>
@@ -3045,13 +3045,13 @@
         <v>5</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F108" s="5">
-        <v>529310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94542</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>2019</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>394726</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>2019</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>291542</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>2019</v>
       </c>
@@ -3105,13 +3105,13 @@
         <v>5</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F111" s="5">
-        <v>268138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>2019</v>
       </c>
@@ -3125,13 +3125,13 @@
         <v>5</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F112" s="5">
-        <v>94542</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6864169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>2019</v>
       </c>
@@ -3145,13 +3145,13 @@
         <v>5</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F113" s="5">
-        <v>5624</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>268138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>2019</v>
       </c>
@@ -3165,13 +3165,13 @@
         <v>5</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F114" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>529310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>2019</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>2019</v>
       </c>
@@ -3205,13 +3205,13 @@
         <v>5</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F116" s="5">
-        <v>26304990</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22159203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>2019</v>
       </c>
@@ -3225,13 +3225,13 @@
         <v>5</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F117" s="5">
-        <v>22159203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>796268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>2019</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>7781686</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>2019</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>5235716</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>2019</v>
       </c>
@@ -3285,13 +3285,13 @@
         <v>5</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F120" s="5">
-        <v>796268</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>2019</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>203122</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>2019</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>140758</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>2019</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>15436</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>2019</v>
       </c>
@@ -3365,13 +3365,13 @@
         <v>5</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F124" s="5">
-        <v>12478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26304990</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>2019</v>
       </c>
@@ -3385,13 +3385,13 @@
         <v>5</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F125" s="5">
-        <v>-94</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12478</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>2019</v>
       </c>
@@ -3405,13 +3405,13 @@
         <v>5</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F126" s="5">
-        <v>10333235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>2019</v>
       </c>
@@ -3425,13 +3425,13 @@
         <v>5</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F127" s="5">
-        <v>4266684</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95614</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>2019</v>
       </c>
@@ -3445,13 +3445,13 @@
         <v>5</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F128" s="5">
-        <v>2550811</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10333235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>2019</v>
       </c>
@@ -3465,13 +3465,13 @@
         <v>5</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F129" s="5">
-        <v>556839</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4266684</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>2019</v>
       </c>
@@ -3485,13 +3485,13 @@
         <v>5</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F130" s="5">
-        <v>404468</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65655</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>2019</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>113266</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>2019</v>
       </c>
@@ -3525,13 +3525,13 @@
         <v>5</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="F132" s="5">
-        <v>95614</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>2019</v>
       </c>
@@ -3545,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F133" s="5">
-        <v>65655</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>556839</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>2019</v>
       </c>
@@ -3565,13 +3565,13 @@
         <v>5</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F134" s="5">
-        <v>21008</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2550811</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>2019</v>
       </c>
@@ -3585,13 +3585,13 @@
         <v>5</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F135" s="5">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>404468</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>2019</v>
       </c>
@@ -3605,13 +3605,13 @@
         <v>5</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F136" s="5">
-        <v>98735488</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48788322</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>2019</v>
       </c>
@@ -3625,13 +3625,13 @@
         <v>5</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F137" s="5">
-        <v>48788322</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123811</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>2019</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>21345588</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>2019</v>
       </c>
@@ -3665,13 +3665,13 @@
         <v>5</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F139" s="5">
-        <v>14459597</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98735488</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>2019</v>
       </c>
@@ -3685,13 +3685,13 @@
         <v>5</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F140" s="5">
-        <v>412148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+        <v>238692</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>2019</v>
       </c>
@@ -3705,13 +3705,13 @@
         <v>5</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F141" s="5">
-        <v>260888</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>412148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>2019</v>
       </c>
@@ -3725,13 +3725,13 @@
         <v>5</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F142" s="5">
-        <v>238692</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>260888</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>2019</v>
       </c>
@@ -3745,13 +3745,13 @@
         <v>5</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F143" s="5">
-        <v>123811</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>2019</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>61962</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>2019</v>
       </c>
@@ -3785,13 +3785,13 @@
         <v>5</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F145" s="5">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14459597</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>2019</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>2019</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>60761806</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>2019</v>
       </c>
@@ -3845,13 +3845,13 @@
         <v>5</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F148" s="5">
-        <v>32041895</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>255983</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>2019</v>
       </c>
@@ -3865,13 +3865,13 @@
         <v>5</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F149" s="5">
-        <v>6216030</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32041895</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>2019</v>
       </c>
@@ -3885,13 +3885,13 @@
         <v>5</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F150" s="5">
-        <v>1984109</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+        <v>333473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>2019</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>462739</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>2019</v>
       </c>
@@ -3925,13 +3925,13 @@
         <v>5</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F152" s="5">
-        <v>333473</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1984109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>2019</v>
       </c>
@@ -3945,13 +3945,13 @@
         <v>5</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F153" s="5">
-        <v>322601</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>2019</v>
       </c>
@@ -3965,13 +3965,13 @@
         <v>5</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F154" s="5">
-        <v>255983</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+        <v>322601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>2019</v>
       </c>
@@ -3985,13 +3985,13 @@
         <v>5</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F155" s="5">
-        <v>126745</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6216030</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>2019</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>2019</v>
       </c>
@@ -4025,13 +4025,13 @@
         <v>5</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F157" s="5">
-        <v>21123539</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17314601</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>2019</v>
       </c>
@@ -4045,13 +4045,13 @@
         <v>5</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F158" s="5">
-        <v>17314601</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20473</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>2019</v>
       </c>
@@ -4065,13 +4065,13 @@
         <v>5</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F159" s="5">
-        <v>9247734</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3024463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>2019</v>
       </c>
@@ -4085,13 +4085,13 @@
         <v>5</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F160" s="5">
-        <v>3024463</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9247734</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>2019</v>
       </c>
@@ -4105,13 +4105,13 @@
         <v>5</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F161" s="5">
-        <v>78140</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>2019</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>62723</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>2019</v>
       </c>
@@ -4145,13 +4145,13 @@
         <v>5</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F163" s="5">
-        <v>20473</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>2019</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>11323</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>2019</v>
       </c>
@@ -4185,13 +4185,13 @@
         <v>5</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F165" s="5">
-        <v>4996</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21123539</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>2019</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>51714430</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>2019</v>
       </c>
@@ -4225,13 +4225,13 @@
         <v>5</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F167" s="5">
-        <v>15341467</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4231542</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>2019</v>
       </c>
@@ -4245,13 +4245,13 @@
         <v>5</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F168" s="5">
-        <v>4231542</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15341467</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>2019</v>
       </c>
@@ -4265,13 +4265,13 @@
         <v>5</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F169" s="5">
-        <v>276114</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>2019</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>97941</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>2019</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>50359</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>2019</v>
       </c>
@@ -4325,13 +4325,13 @@
         <v>5</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F172" s="5">
-        <v>47401</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>2019</v>
       </c>
@@ -4345,13 +4345,13 @@
         <v>5</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F173" s="5">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+        <v>276114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>2019</v>
       </c>
@@ -4365,13 +4365,13 @@
         <v>5</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F174" s="5">
-        <v>69522954</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7418814</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>2019</v>
       </c>
@@ -4385,13 +4385,13 @@
         <v>5</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F175" s="5">
-        <v>13981335</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1365664</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>2019</v>
       </c>
@@ -4405,13 +4405,13 @@
         <v>5</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F176" s="5">
-        <v>7418814</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69522954</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>2019</v>
       </c>
@@ -4425,13 +4425,13 @@
         <v>5</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F177" s="5">
-        <v>3188535</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13981335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>2019</v>
       </c>
@@ -4445,13 +4445,13 @@
         <v>5</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F178" s="5">
-        <v>2164613</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>572932</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>2019</v>
       </c>
@@ -4465,13 +4465,13 @@
         <v>5</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F179" s="5">
-        <v>1875016</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83394</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>2019</v>
       </c>
@@ -4485,13 +4485,13 @@
         <v>5</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F180" s="5">
-        <v>1365664</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1875016</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>2019</v>
       </c>
@@ -4505,13 +4505,13 @@
         <v>5</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F181" s="5">
-        <v>572932</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3188535</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>2019</v>
       </c>
@@ -4525,13 +4525,13 @@
         <v>5</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F182" s="5">
-        <v>83394</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>2019</v>
       </c>
@@ -4545,13 +4545,13 @@
         <v>5</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F183" s="5">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2164613</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>2019</v>
       </c>
@@ -4565,13 +4565,13 @@
         <v>5</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F184" s="5">
-        <v>15406573</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>2019</v>
       </c>
@@ -4585,13 +4585,13 @@
         <v>5</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F185" s="5">
-        <v>2177204</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>975560</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>2019</v>
       </c>
@@ -4605,13 +4605,13 @@
         <v>5</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F186" s="5">
-        <v>1163776</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15406573</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>2019</v>
       </c>
@@ -4625,13 +4625,13 @@
         <v>5</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F187" s="5">
-        <v>975560</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2177204</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>2019</v>
       </c>
@@ -4645,13 +4645,13 @@
         <v>5</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F188" s="5">
-        <v>912118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+        <v>910270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>2019</v>
       </c>
@@ -4665,13 +4665,13 @@
         <v>5</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F189" s="5">
-        <v>910270</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+        <v>912118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>2019</v>
       </c>
@@ -4685,13 +4685,13 @@
         <v>5</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F190" s="5">
-        <v>210817</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103610</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>2019</v>
       </c>
@@ -4705,13 +4705,13 @@
         <v>5</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F191" s="5">
-        <v>103610</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-436378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>2019</v>
       </c>
@@ -4725,13 +4725,13 @@
         <v>5</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F192" s="5">
-        <v>92086</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1163776</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>2019</v>
       </c>
@@ -4745,13 +4745,13 @@
         <v>5</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F193" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <v>210817</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>2019</v>
       </c>
@@ -4765,13 +4765,13 @@
         <v>5</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F194" s="5">
-        <v>-436378</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92086</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>2019</v>
       </c>
@@ -4785,13 +4785,13 @@
         <v>5</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F195" s="5">
-        <v>15012922</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5721573</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>2019</v>
       </c>
@@ -4805,13 +4805,13 @@
         <v>5</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F196" s="5">
-        <v>14605261</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2188051</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>2019</v>
       </c>
@@ -4825,13 +4825,13 @@
         <v>5</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F197" s="5">
-        <v>5721573</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14605261</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>2019</v>
       </c>
@@ -4845,13 +4845,13 @@
         <v>5</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F198" s="5">
-        <v>2188051</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15012922</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>2019</v>
       </c>
@@ -4865,13 +4865,13 @@
         <v>5</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F199" s="5">
-        <v>520269</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+        <v>325436</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>2019</v>
       </c>
@@ -4885,13 +4885,13 @@
         <v>5</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F200" s="5">
-        <v>494311</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>330379</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>2019</v>
       </c>
@@ -4905,13 +4905,13 @@
         <v>5</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F201" s="5">
-        <v>330379</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>2019</v>
       </c>
@@ -4925,13 +4925,13 @@
         <v>5</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F202" s="5">
-        <v>325436</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>2019</v>
       </c>
@@ -4945,13 +4945,13 @@
         <v>5</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F203" s="5">
-        <v>67269</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>520269</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>2019</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>60124</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>2019</v>
       </c>
@@ -4985,13 +4985,13 @@
         <v>5</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F205" s="5">
-        <v>3499341</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71054</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>2019</v>
       </c>
@@ -5005,13 +5005,13 @@
         <v>5</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F206" s="5">
-        <v>2493932</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3499341</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>2019</v>
       </c>
@@ -5025,13 +5025,13 @@
         <v>5</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F207" s="5">
-        <v>2127168</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1797271</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>2019</v>
       </c>
@@ -5045,13 +5045,13 @@
         <v>5</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F208" s="5">
-        <v>1797271</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+        <v>338847</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>2019</v>
       </c>
@@ -5065,13 +5065,13 @@
         <v>5</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F209" s="5">
-        <v>338847</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121197</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>2019</v>
       </c>
@@ -5085,13 +5085,13 @@
         <v>5</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F210" s="5">
-        <v>121197</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34703</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>2019</v>
       </c>
@@ -5105,13 +5105,13 @@
         <v>5</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="F211" s="5">
-        <v>71054</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>2019</v>
       </c>
@@ -5125,13 +5125,13 @@
         <v>5</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F212" s="5">
-        <v>34703</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2493932</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>2019</v>
       </c>
@@ -5145,13 +5145,13 @@
         <v>5</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F213" s="5">
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2127168</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>2019</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>37341489</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>2019</v>
       </c>
@@ -5185,13 +5185,13 @@
         <v>5</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F215" s="5">
-        <v>34429525</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1649789</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>2019</v>
       </c>
@@ -5205,13 +5205,13 @@
         <v>5</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F216" s="5">
-        <v>32909275</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34429525</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>2019</v>
       </c>
@@ -5225,13 +5225,13 @@
         <v>5</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F217" s="5">
-        <v>5825705</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32909275</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>2019</v>
       </c>
@@ -5245,13 +5245,13 @@
         <v>5</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F218" s="5">
-        <v>1696538</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>173102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>2019</v>
       </c>
@@ -5265,13 +5265,13 @@
         <v>5</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F219" s="5">
-        <v>1649789</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>915104</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>2019</v>
       </c>
@@ -5285,13 +5285,13 @@
         <v>5</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F220" s="5">
-        <v>1399299</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1696538</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>2019</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>915188</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>2019</v>
       </c>
@@ -5325,13 +5325,13 @@
         <v>5</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F222" s="5">
-        <v>915104</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-696488</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>2019</v>
       </c>
@@ -5345,13 +5345,13 @@
         <v>5</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F223" s="5">
-        <v>173102</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142961</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>2019</v>
       </c>
@@ -5365,13 +5365,13 @@
         <v>5</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F224" s="5">
-        <v>142961</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5825705</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>2019</v>
       </c>
@@ -5385,13 +5385,13 @@
         <v>5</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F225" s="5">
-        <v>-696488</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1399299</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>2019</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>17804538</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>2019</v>
       </c>
@@ -5425,13 +5425,13 @@
         <v>5</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F227" s="5">
-        <v>14104547</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1056034</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>2019</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>12607035</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>2019</v>
       </c>
@@ -5465,13 +5465,13 @@
         <v>5</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F229" s="5">
-        <v>10964869</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14104547</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>2019</v>
       </c>
@@ -5485,13 +5485,13 @@
         <v>5</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F230" s="5">
-        <v>1248833</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>354907</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>2019</v>
       </c>
@@ -5505,13 +5505,13 @@
         <v>5</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F231" s="5">
-        <v>1056034</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>350844</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>2019</v>
       </c>
@@ -5525,13 +5525,13 @@
         <v>5</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F232" s="5">
-        <v>837138</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50645</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>2019</v>
       </c>
@@ -5545,13 +5545,13 @@
         <v>5</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F233" s="5">
-        <v>354907</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1248833</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>2019</v>
       </c>
@@ -5565,13 +5565,13 @@
         <v>5</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F234" s="5">
-        <v>350844</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10964869</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>2019</v>
       </c>
@@ -5585,13 +5585,13 @@
         <v>5</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F235" s="5">
-        <v>50645</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+        <v>837138</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>2019</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>55686285</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>2019</v>
       </c>
@@ -5625,13 +5625,13 @@
         <v>5</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F237" s="5">
-        <v>9189863</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2215998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>2019</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>7674804</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>2019</v>
       </c>
@@ -5665,13 +5665,13 @@
         <v>5</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F239" s="5">
-        <v>2857890</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9189863</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>2019</v>
       </c>
@@ -5685,13 +5685,13 @@
         <v>5</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F240" s="5">
-        <v>2215998</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>2019</v>
       </c>
@@ -5705,13 +5705,13 @@
         <v>5</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F241" s="5">
-        <v>336744</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>2019</v>
       </c>
@@ -5725,13 +5725,13 @@
         <v>5</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F242" s="5">
-        <v>99782</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97145</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>2019</v>
       </c>
@@ -5745,13 +5745,13 @@
         <v>5</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F243" s="5">
-        <v>97145</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+        <v>336744</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>2019</v>
       </c>
@@ -5765,13 +5765,13 @@
         <v>5</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F244" s="5">
-        <v>76243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99782</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>2019</v>
       </c>
@@ -5785,13 +5785,13 @@
         <v>5</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F245" s="5">
-        <v>43908</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2857890</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>2019</v>
       </c>
@@ -5805,13 +5805,13 @@
         <v>5</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F246" s="5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>2019</v>
       </c>
@@ -5825,13 +5825,13 @@
         <v>5</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F247" s="5">
-        <v>48780505</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4414340</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>2019</v>
       </c>
@@ -5845,13 +5845,13 @@
         <v>5</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F248" s="5">
-        <v>11032514</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48780505</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>2019</v>
       </c>
@@ -5865,13 +5865,13 @@
         <v>5</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F249" s="5">
-        <v>4414340</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11032514</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>2019</v>
       </c>
@@ -5885,13 +5885,13 @@
         <v>5</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F250" s="5">
-        <v>1378380</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>2019</v>
       </c>
@@ -5905,13 +5905,13 @@
         <v>5</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F251" s="5">
-        <v>322340</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16978</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>2019</v>
       </c>
@@ -5925,13 +5925,13 @@
         <v>5</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F252" s="5">
-        <v>16978</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13703</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>2019</v>
       </c>
@@ -5945,13 +5945,13 @@
         <v>5</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F253" s="5">
-        <v>13703</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+        <v>322340</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>2019</v>
       </c>
@@ -5965,13 +5965,13 @@
         <v>5</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F254" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1378380</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>2019</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>14100662</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>2019</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>10004523</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>2019</v>
       </c>
@@ -6025,13 +6025,13 @@
         <v>5</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F257" s="5">
-        <v>2373356</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+        <v>507213</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>2019</v>
       </c>
@@ -6045,13 +6045,13 @@
         <v>5</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F258" s="5">
-        <v>507213</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+        <v>287160</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>2019</v>
       </c>
@@ -6065,13 +6065,13 @@
         <v>5</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F259" s="5">
-        <v>464604</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>2019</v>
       </c>
@@ -6085,13 +6085,13 @@
         <v>5</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F260" s="5">
-        <v>287160</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+        <v>464604</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>2019</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>29393</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>2019</v>
       </c>
@@ -6125,13 +6125,13 @@
         <v>5</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F262" s="5">
-        <v>20140</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2373356</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>2019</v>
       </c>
@@ -6145,13 +6145,13 @@
         <v>5</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F263" s="5">
-        <v>10028</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20140</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>2019</v>
       </c>
@@ -6165,13 +6165,13 @@
         <v>5</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F264" s="5">
-        <v>41915605</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30672101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>2019</v>
       </c>
@@ -6185,13 +6185,13 @@
         <v>5</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F265" s="5">
-        <v>41146865</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6185746</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>2019</v>
       </c>
@@ -6205,13 +6205,13 @@
         <v>5</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F266" s="5">
-        <v>30672101</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41146865</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>2019</v>
       </c>
@@ -6225,13 +6225,13 @@
         <v>5</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F267" s="5">
-        <v>7451338</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41915605</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>2019</v>
       </c>
@@ -6245,13 +6245,13 @@
         <v>5</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F268" s="5">
-        <v>6185746</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+        <v>537775</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>2019</v>
       </c>
@@ -6265,13 +6265,13 @@
         <v>5</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F269" s="5">
-        <v>1878101</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+        <v>671059</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>2019</v>
       </c>
@@ -6285,13 +6285,13 @@
         <v>5</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F270" s="5">
-        <v>671059</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+        <v>192132</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>2019</v>
       </c>
@@ -6305,13 +6305,13 @@
         <v>5</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F271" s="5">
-        <v>537775</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>2019</v>
       </c>
@@ -6325,13 +6325,13 @@
         <v>5</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F272" s="5">
-        <v>523139</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7451338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>2019</v>
       </c>
@@ -6345,13 +6345,13 @@
         <v>5</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F273" s="5">
-        <v>192132</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+        <v>523139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>2019</v>
       </c>
@@ -6365,13 +6365,13 @@
         <v>5</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F274" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1878101</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>2019</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>25151437</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>2019</v>
       </c>
@@ -6405,13 +6405,13 @@
         <v>5</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F276" s="5">
-        <v>11213025</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3179292</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>2019</v>
       </c>
@@ -6425,13 +6425,13 @@
         <v>5</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F277" s="5">
-        <v>3179292</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1470585</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>2019</v>
       </c>
@@ -6445,13 +6445,13 @@
         <v>5</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F278" s="5">
-        <v>1470585</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49566</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>2019</v>
       </c>
@@ -6465,13 +6465,13 @@
         <v>5</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F279" s="5">
-        <v>49647</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>2019</v>
       </c>
@@ -6485,13 +6485,13 @@
         <v>5</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F280" s="5">
-        <v>49566</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49647</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>2019</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>33587</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>2019</v>
       </c>
@@ -6525,13 +6525,13 @@
         <v>5</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F282" s="5">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11213025</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>2019</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>20385423</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>2019</v>
       </c>
@@ -6565,13 +6565,13 @@
         <v>5</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F284" s="5">
-        <v>7211092</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1340252</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>2019</v>
       </c>
@@ -6585,13 +6585,13 @@
         <v>5</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F285" s="5">
-        <v>6951600</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1276856</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>2019</v>
       </c>
@@ -6605,13 +6605,13 @@
         <v>5</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F286" s="5">
-        <v>1340252</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6951600</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>2019</v>
       </c>
@@ -6625,13 +6625,13 @@
         <v>5</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F287" s="5">
-        <v>1276856</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>2019</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>84518</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>2019</v>
       </c>
@@ -6665,13 +6665,13 @@
         <v>5</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F289" s="5">
-        <v>31706</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16168</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>2019</v>
       </c>
@@ -6685,13 +6685,13 @@
         <v>5</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F290" s="5">
-        <v>16168</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31706</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>2019</v>
       </c>
@@ -6705,13 +6705,13 @@
         <v>5</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F291" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7211092</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>2019</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>2019</v>
       </c>
@@ -6745,13 +6745,13 @@
         <v>5</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F293" s="5">
-        <v>10906923</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+        <v>343015</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>2019</v>
       </c>
@@ -6765,13 +6765,13 @@
         <v>5</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F294" s="5">
-        <v>3582516</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1462043</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>2019</v>
       </c>
@@ -6785,13 +6785,13 @@
         <v>5</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F295" s="5">
-        <v>1462043</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3582516</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>2019</v>
       </c>
@@ -6805,13 +6805,13 @@
         <v>5</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F296" s="5">
-        <v>1080678</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10906923</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>2019</v>
       </c>
@@ -6825,13 +6825,13 @@
         <v>5</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F297" s="5">
-        <v>433405</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54639</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>2019</v>
       </c>
@@ -6845,13 +6845,13 @@
         <v>5</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F298" s="5">
-        <v>343015</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133286</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>2019</v>
       </c>
@@ -6865,13 +6865,13 @@
         <v>5</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F299" s="5">
-        <v>133286</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30090</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>2019</v>
       </c>
@@ -6885,13 +6885,13 @@
         <v>5</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F300" s="5">
-        <v>54639</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+        <v>433405</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>2019</v>
       </c>
@@ -6905,13 +6905,13 @@
         <v>5</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F301" s="5">
-        <v>30090</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1080678</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>2019</v>
       </c>
@@ -6925,13 +6925,13 @@
         <v>5</v>
       </c>
       <c r="E302" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F302" s="5">
-        <v>40449133</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1041529</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>2019</v>
       </c>
@@ -6945,13 +6945,13 @@
         <v>5</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F303" s="5">
-        <v>26637324</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26468</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>2019</v>
       </c>
@@ -6965,13 +6965,13 @@
         <v>5</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F304" s="5">
-        <v>1164721</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40449133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>2019</v>
       </c>
@@ -6985,13 +6985,13 @@
         <v>5</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F305" s="5">
-        <v>1041529</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26637324</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>2019</v>
       </c>
@@ -7005,13 +7005,13 @@
         <v>5</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F306" s="5">
-        <v>796907</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+        <v>615725</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>2019</v>
       </c>
@@ -7025,13 +7025,13 @@
         <v>5</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F307" s="5">
-        <v>615725</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+        <v>796907</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>2019</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>216377</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="4">
         <v>2019</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>142423</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="4">
         <v>2019</v>
       </c>
@@ -7085,13 +7085,13 @@
         <v>5</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F310" s="5">
-        <v>26468</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-93829</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="4">
         <v>2019</v>
       </c>
@@ -7105,13 +7105,13 @@
         <v>5</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F311" s="5">
-        <v>21996</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1164721</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="4">
         <v>2019</v>
       </c>
@@ -7125,13 +7125,13 @@
         <v>5</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F312" s="5">
-        <v>-93829</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21996</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="4">
         <v>2019</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>14691665</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="4">
         <v>2019</v>
       </c>
@@ -7165,13 +7165,13 @@
         <v>5</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F314" s="5">
-        <v>11803192</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58102</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="4">
         <v>2019</v>
       </c>
@@ -7185,13 +7185,13 @@
         <v>5</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F315" s="5">
-        <v>6892087</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158180</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="4">
         <v>2019</v>
       </c>
@@ -7205,13 +7205,13 @@
         <v>5</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F316" s="5">
-        <v>1365900</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11803192</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="4">
         <v>2019</v>
       </c>
@@ -7225,13 +7225,13 @@
         <v>5</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F317" s="5">
-        <v>183601</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="4">
         <v>2019</v>
       </c>
@@ -7245,13 +7245,13 @@
         <v>5</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F318" s="5">
-        <v>158180</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22582</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="4">
         <v>2019</v>
       </c>
@@ -7265,13 +7265,13 @@
         <v>5</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="F319" s="5">
-        <v>58102</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+        <v>183601</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="4">
         <v>2019</v>
       </c>
@@ -7285,13 +7285,13 @@
         <v>5</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F320" s="5">
-        <v>22582</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1365900</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="4">
         <v>2019</v>
       </c>
@@ -7305,13 +7305,13 @@
         <v>5</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F321" s="5">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6892087</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="4">
         <v>2019</v>
       </c>
@@ -7325,13 +7325,13 @@
         <v>5</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F322" s="5">
-        <v>25774966</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2735457</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="4">
         <v>2019</v>
       </c>
@@ -7345,13 +7345,13 @@
         <v>5</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F323" s="5">
-        <v>4810511</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3909124</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="4">
         <v>2019</v>
       </c>
@@ -7365,13 +7365,13 @@
         <v>5</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F324" s="5">
-        <v>3909124</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2242057</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="4">
         <v>2019</v>
       </c>
@@ -7385,13 +7385,13 @@
         <v>5</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F325" s="5">
-        <v>2735457</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25774966</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="4">
         <v>2019</v>
       </c>
@@ -7405,13 +7405,13 @@
         <v>5</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F326" s="5">
-        <v>2242057</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21519</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="4">
         <v>2019</v>
       </c>
@@ -7425,13 +7425,13 @@
         <v>5</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F327" s="5">
-        <v>329399</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54282</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="4">
         <v>2019</v>
       </c>
@@ -7445,13 +7445,13 @@
         <v>5</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F328" s="5">
-        <v>54282</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="4">
         <v>2019</v>
       </c>
@@ -7465,13 +7465,13 @@
         <v>5</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F329" s="5">
-        <v>21519</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="4">
         <v>2019</v>
       </c>
@@ -7485,13 +7485,13 @@
         <v>5</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F330" s="5">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4810511</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="4">
         <v>2019</v>
       </c>
@@ -7505,13 +7505,13 @@
         <v>5</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F331" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+        <v>329399</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="4">
         <v>2019</v>
       </c>
@@ -7525,13 +7525,13 @@
         <v>5</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F332" s="5">
-        <v>47612134</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+        <v>421951</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="4">
         <v>2019</v>
       </c>
@@ -7545,13 +7545,13 @@
         <v>5</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F333" s="5">
-        <v>44865018</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30620895</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="4">
         <v>2019</v>
       </c>
@@ -7565,13 +7565,13 @@
         <v>5</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F334" s="5">
-        <v>30620895</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47612134</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="4">
         <v>2019</v>
       </c>
@@ -7585,13 +7585,13 @@
         <v>5</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F335" s="5">
-        <v>4455881</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44865018</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="4">
         <v>2019</v>
       </c>
@@ -7605,13 +7605,13 @@
         <v>5</v>
       </c>
       <c r="E336" s="12" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F336" s="5">
-        <v>1473751</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+        <v>959727</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="4">
         <v>2019</v>
       </c>
@@ -7625,13 +7625,13 @@
         <v>5</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F337" s="5">
-        <v>959727</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1473751</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="4">
         <v>2019</v>
       </c>
@@ -7645,13 +7645,13 @@
         <v>5</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F338" s="5">
-        <v>523640</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="4">
         <v>2019</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>511768</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="4">
         <v>2019</v>
       </c>
@@ -7685,13 +7685,13 @@
         <v>5</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F340" s="5">
-        <v>472434</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-315589</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="4">
         <v>2019</v>
       </c>
@@ -7705,13 +7705,13 @@
         <v>5</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="F341" s="5">
-        <v>421951</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+        <v>523640</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="4">
         <v>2019</v>
       </c>
@@ -7725,13 +7725,13 @@
         <v>5</v>
       </c>
       <c r="E342" s="12" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F342" s="5">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4455881</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="4">
         <v>2019</v>
       </c>
@@ -7745,13 +7745,13 @@
         <v>5</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F343" s="5">
-        <v>-315589</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+        <v>472434</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="4">
         <v>2019</v>
       </c>
@@ -7765,13 +7765,13 @@
         <v>5</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F344" s="5">
-        <v>51325454</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46764529</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="4">
         <v>2019</v>
       </c>
@@ -7785,13 +7785,13 @@
         <v>5</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F345" s="5">
-        <v>46764529</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+        <v>402631</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="4">
         <v>2019</v>
       </c>
@@ -7805,13 +7805,13 @@
         <v>5</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F346" s="5">
-        <v>17010561</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51325454</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="4">
         <v>2019</v>
       </c>
@@ -7825,13 +7825,13 @@
         <v>5</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F347" s="5">
-        <v>2042913</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17010561</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="4">
         <v>2019</v>
       </c>
@@ -7845,13 +7845,13 @@
         <v>5</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F348" s="5">
-        <v>844494</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8172</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="4">
         <v>2019</v>
       </c>
@@ -7865,13 +7865,13 @@
         <v>5</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F349" s="5">
-        <v>775505</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+        <v>444247</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="4">
         <v>2019</v>
       </c>
@@ -7885,13 +7885,13 @@
         <v>5</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F350" s="5">
-        <v>444247</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+        <v>775505</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="4">
         <v>2019</v>
       </c>
@@ -7905,13 +7905,13 @@
         <v>5</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F351" s="5">
-        <v>402631</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+        <v>844494</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="4">
         <v>2019</v>
       </c>
@@ -7925,13 +7925,13 @@
         <v>5</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F352" s="5">
-        <v>241053</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141567</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="4">
         <v>2019</v>
       </c>
@@ -7945,13 +7945,13 @@
         <v>5</v>
       </c>
       <c r="E353" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F353" s="5">
-        <v>141567</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2042913</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="4">
         <v>2019</v>
       </c>
@@ -7965,13 +7965,13 @@
         <v>5</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F354" s="5">
-        <v>8172</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+        <v>241053</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="4">
         <v>2019</v>
       </c>
@@ -7985,13 +7985,13 @@
         <v>5</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F355" s="5">
-        <v>44187963</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7826057</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="4">
         <v>2019</v>
       </c>
@@ -8005,13 +8005,13 @@
         <v>5</v>
       </c>
       <c r="E356" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F356" s="5">
-        <v>29008131</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3903231</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="4">
         <v>2019</v>
       </c>
@@ -8025,13 +8025,13 @@
         <v>5</v>
       </c>
       <c r="E357" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F357" s="5">
-        <v>7826057</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44187963</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="4">
         <v>2019</v>
       </c>
@@ -8045,13 +8045,13 @@
         <v>5</v>
       </c>
       <c r="E358" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F358" s="5">
-        <v>3903231</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="4">
         <v>2019</v>
       </c>
@@ -8065,13 +8065,13 @@
         <v>5</v>
       </c>
       <c r="E359" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F359" s="5">
-        <v>235821</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74815</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="4">
         <v>2019</v>
       </c>
@@ -8085,13 +8085,13 @@
         <v>5</v>
       </c>
       <c r="E360" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F360" s="5">
-        <v>74815</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17504</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="4">
         <v>2019</v>
       </c>
@@ -8105,13 +8105,13 @@
         <v>5</v>
       </c>
       <c r="E361" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F361" s="5">
-        <v>59623</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-104059</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="4">
         <v>2019</v>
       </c>
@@ -8125,13 +8125,13 @@
         <v>5</v>
       </c>
       <c r="E362" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F362" s="5">
-        <v>17504</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59623</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="4">
         <v>2019</v>
       </c>
@@ -8145,13 +8145,13 @@
         <v>5</v>
       </c>
       <c r="E363" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F363" s="5">
-        <v>7416</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29008131</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="4">
         <v>2019</v>
       </c>
@@ -8165,13 +8165,13 @@
         <v>5</v>
       </c>
       <c r="E364" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F364" s="5">
-        <v>-104059</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+        <v>235821</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="4">
         <v>2019</v>
       </c>
@@ -8185,13 +8185,13 @@
         <v>5</v>
       </c>
       <c r="E365" s="12" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F365" s="5">
-        <v>30322003</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2569160</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="4">
         <v>2019</v>
       </c>
@@ -8205,13 +8205,13 @@
         <v>5</v>
       </c>
       <c r="E366" s="12" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F366" s="5">
-        <v>20932334</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185456</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="4">
         <v>2019</v>
       </c>
@@ -8225,13 +8225,13 @@
         <v>5</v>
       </c>
       <c r="E367" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F367" s="5">
-        <v>6568889</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30322003</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="4">
         <v>2019</v>
       </c>
@@ -8245,13 +8245,13 @@
         <v>5</v>
       </c>
       <c r="E368" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F368" s="5">
-        <v>2569160</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20932334</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>2019</v>
       </c>
@@ -8265,13 +8265,13 @@
         <v>5</v>
       </c>
       <c r="E369" s="12" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F369" s="5">
-        <v>676337</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35771</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>2019</v>
       </c>
@@ -8285,13 +8285,13 @@
         <v>5</v>
       </c>
       <c r="E370" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F370" s="5">
-        <v>637354</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324451</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>2019</v>
       </c>
@@ -8305,13 +8305,13 @@
         <v>5</v>
       </c>
       <c r="E371" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F371" s="5">
-        <v>324451</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>2019</v>
       </c>
@@ -8325,13 +8325,13 @@
         <v>5</v>
       </c>
       <c r="E372" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F372" s="5">
-        <v>185456</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+        <v>676337</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>2019</v>
       </c>
@@ -8345,13 +8345,13 @@
         <v>5</v>
       </c>
       <c r="E373" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F373" s="5">
-        <v>35771</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6568889</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>2019</v>
       </c>
@@ -8365,13 +8365,13 @@
         <v>5</v>
       </c>
       <c r="E374" s="12" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F374" s="5">
-        <v>6623</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+        <v>637354</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>2019</v>
       </c>
@@ -8385,13 +8385,13 @@
         <v>5</v>
       </c>
       <c r="E375" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F375" s="5">
-        <v>98040344</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37928930</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>2019</v>
       </c>
@@ -8405,13 +8405,13 @@
         <v>5</v>
       </c>
       <c r="E376" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F376" s="5">
-        <v>83229652</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3503123</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>2019</v>
       </c>
@@ -8425,13 +8425,13 @@
         <v>5</v>
       </c>
       <c r="E377" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F377" s="5">
-        <v>37928930</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98040344</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>2019</v>
       </c>
@@ -8445,13 +8445,13 @@
         <v>5</v>
       </c>
       <c r="E378" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F378" s="5">
-        <v>3503123</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83229652</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>2019</v>
       </c>
@@ -8465,13 +8465,13 @@
         <v>5</v>
       </c>
       <c r="E379" s="12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F379" s="5">
-        <v>3250499</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+        <v>857346</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>2019</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>1673081</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>2019</v>
       </c>
@@ -8505,13 +8505,13 @@
         <v>5</v>
       </c>
       <c r="E381" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F381" s="5">
-        <v>857346</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+        <v>494475</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>2019</v>
       </c>
@@ -8525,13 +8525,13 @@
         <v>5</v>
       </c>
       <c r="E382" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F382" s="5">
-        <v>494475</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185321</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>2019</v>
       </c>
@@ -8545,13 +8545,13 @@
         <v>5</v>
       </c>
       <c r="E383" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F383" s="5">
-        <v>315404</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-565629</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>2019</v>
       </c>
@@ -8565,13 +8565,13 @@
         <v>5</v>
       </c>
       <c r="E384" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F384" s="5">
-        <v>185321</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82784</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="4">
         <v>2019</v>
       </c>
@@ -8585,13 +8585,13 @@
         <v>5</v>
       </c>
       <c r="E385" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F385" s="5">
-        <v>82784</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3250499</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="4">
         <v>2019</v>
       </c>
@@ -8605,13 +8605,13 @@
         <v>5</v>
       </c>
       <c r="E386" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F386" s="5">
-        <v>-565629</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+        <v>315404</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="4">
         <v>2019</v>
       </c>
@@ -8625,13 +8625,13 @@
         <v>5</v>
       </c>
       <c r="E387" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F387" s="5">
-        <v>7141026</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="4">
         <v>2019</v>
       </c>
@@ -8645,13 +8645,13 @@
         <v>5</v>
       </c>
       <c r="E388" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F388" s="5">
-        <v>207796</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="4">
         <v>2019</v>
       </c>
@@ -8665,13 +8665,13 @@
         <v>5</v>
       </c>
       <c r="E389" s="12" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F389" s="5">
-        <v>206195</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7141026</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="4">
         <v>2019</v>
       </c>
@@ -8685,13 +8685,13 @@
         <v>5</v>
       </c>
       <c r="E390" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F390" s="5">
-        <v>54713</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207796</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="4">
         <v>2019</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="4">
         <v>2019</v>
       </c>
@@ -8725,13 +8725,13 @@
         <v>5</v>
       </c>
       <c r="E392" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F392" s="5">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54713</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="4">
         <v>2019</v>
       </c>
@@ -8745,13 +8745,13 @@
         <v>5</v>
       </c>
       <c r="E393" s="12" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F393" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206195</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="4">
         <v>2019</v>
       </c>
@@ -8765,13 +8765,13 @@
         <v>5</v>
       </c>
       <c r="E394" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F394" s="5">
-        <v>56103043</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14861495</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="4">
         <v>2019</v>
       </c>
@@ -8785,13 +8785,13 @@
         <v>5</v>
       </c>
       <c r="E395" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F395" s="5">
-        <v>23925645</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2976187</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="4">
         <v>2019</v>
       </c>
@@ -8805,13 +8805,13 @@
         <v>5</v>
       </c>
       <c r="E396" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F396" s="5">
-        <v>14861495</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23925645</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="4">
         <v>2019</v>
       </c>
@@ -8825,13 +8825,13 @@
         <v>5</v>
       </c>
       <c r="E397" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F397" s="5">
-        <v>2976187</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56103043</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="4">
         <v>2019</v>
       </c>
@@ -8845,13 +8845,13 @@
         <v>5</v>
       </c>
       <c r="E398" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F398" s="5">
-        <v>2038651</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="4">
         <v>2019</v>
       </c>
@@ -8865,13 +8865,13 @@
         <v>5</v>
       </c>
       <c r="E399" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F399" s="5">
-        <v>858546</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129411</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="4">
         <v>2019</v>
       </c>
@@ -8885,13 +8885,13 @@
         <v>5</v>
       </c>
       <c r="E400" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F400" s="5">
-        <v>129411</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78572</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="4">
         <v>2019</v>
       </c>
@@ -8905,13 +8905,13 @@
         <v>5</v>
       </c>
       <c r="E401" s="12" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F401" s="5">
-        <v>78572</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-908655</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="4">
         <v>2019</v>
       </c>
@@ -8925,13 +8925,13 @@
         <v>5</v>
       </c>
       <c r="E402" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F402" s="5">
-        <v>44609</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+        <v>858546</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="4">
         <v>2019</v>
       </c>
@@ -8945,13 +8945,13 @@
         <v>5</v>
       </c>
       <c r="E403" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F403" s="5">
-        <v>-908655</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2038651</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="4">
         <v>2019</v>
       </c>
@@ -8965,13 +8965,13 @@
         <v>5</v>
       </c>
       <c r="E404" s="12" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F404" s="5">
-        <v>7915155</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2617071</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="4">
         <v>2019</v>
       </c>
@@ -8985,13 +8985,13 @@
         <v>5</v>
       </c>
       <c r="E405" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F405" s="5">
-        <v>2789329</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7915155</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="4">
         <v>2019</v>
       </c>
@@ -9005,13 +9005,13 @@
         <v>5</v>
       </c>
       <c r="E406" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F406" s="5">
-        <v>2617071</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1169625</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="4">
         <v>2019</v>
       </c>
@@ -9025,13 +9025,13 @@
         <v>5</v>
       </c>
       <c r="E407" s="12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F407" s="5">
-        <v>1169625</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="4">
         <v>2019</v>
       </c>
@@ -9045,13 +9045,13 @@
         <v>5</v>
       </c>
       <c r="E408" s="12" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F408" s="5">
-        <v>13638</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="4">
         <v>2019</v>
       </c>
@@ -9065,13 +9065,13 @@
         <v>5</v>
       </c>
       <c r="E409" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F409" s="5">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13638</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="4">
         <v>2019</v>
       </c>
@@ -9085,13 +9085,13 @@
         <v>5</v>
       </c>
       <c r="E410" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F410" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="4">
         <v>2019</v>
       </c>
@@ -9105,13 +9105,13 @@
         <v>5</v>
       </c>
       <c r="E411" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F411" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2789329</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="4">
         <v>2019</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="4">
         <v>2019</v>
       </c>
@@ -9145,13 +9145,13 @@
         <v>5</v>
       </c>
       <c r="E413" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F413" s="5">
-        <v>35720405</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18692168</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="4">
         <v>2019</v>
       </c>
@@ -9165,13 +9165,13 @@
         <v>5</v>
       </c>
       <c r="E414" s="12" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F414" s="5">
-        <v>18692168</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10129824</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="4">
         <v>2019</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>16955153</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="4">
         <v>2019</v>
       </c>
@@ -9205,13 +9205,13 @@
         <v>5</v>
       </c>
       <c r="E416" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F416" s="5">
-        <v>10129824</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35720405</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="4">
         <v>2019</v>
       </c>
@@ -9225,13 +9225,13 @@
         <v>5</v>
       </c>
       <c r="E417" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F417" s="5">
-        <v>830336</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10178</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="4">
         <v>2019</v>
       </c>
@@ -9245,13 +9245,13 @@
         <v>5</v>
       </c>
       <c r="E418" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F418" s="5">
-        <v>326324</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88264</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="4">
         <v>2019</v>
       </c>
@@ -9265,13 +9265,13 @@
         <v>5</v>
       </c>
       <c r="E419" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F419" s="5">
-        <v>139600</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12241</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="4">
         <v>2019</v>
       </c>
@@ -9285,13 +9285,13 @@
         <v>5</v>
       </c>
       <c r="E420" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F420" s="5">
-        <v>88264</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+        <v>139600</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="4">
         <v>2019</v>
       </c>
@@ -9305,13 +9305,13 @@
         <v>5</v>
       </c>
       <c r="E421" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F421" s="5">
-        <v>37976</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-615360</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="4">
         <v>2019</v>
       </c>
@@ -9325,13 +9325,13 @@
         <v>5</v>
       </c>
       <c r="E422" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F422" s="5">
-        <v>12241</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+        <v>326324</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="4">
         <v>2019</v>
       </c>
@@ -9345,13 +9345,13 @@
         <v>5</v>
       </c>
       <c r="E423" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F423" s="5">
-        <v>10178</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37976</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="4">
         <v>2019</v>
       </c>
@@ -9365,13 +9365,13 @@
         <v>5</v>
       </c>
       <c r="E424" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F424" s="5">
-        <v>-615360</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+        <v>830336</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="4">
         <v>2019</v>
       </c>
@@ -9385,13 +9385,13 @@
         <v>5</v>
       </c>
       <c r="E425" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F425" s="5">
-        <v>255630021</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91816735</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>2019</v>
       </c>
@@ -9405,13 +9405,13 @@
         <v>5</v>
       </c>
       <c r="E426" s="12" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F426" s="5">
-        <v>91816735</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1475491</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="4">
         <v>2019</v>
       </c>
@@ -9425,13 +9425,13 @@
         <v>5</v>
       </c>
       <c r="E427" s="12" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F427" s="5">
-        <v>83620371</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+        <v>255630021</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="4">
         <v>2019</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>41298007</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="4">
         <v>2019</v>
       </c>
@@ -9465,13 +9465,13 @@
         <v>5</v>
       </c>
       <c r="E429" s="12" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F429" s="5">
-        <v>4365125</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+        <v>510403</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="4">
         <v>2019</v>
       </c>
@@ -9485,13 +9485,13 @@
         <v>5</v>
       </c>
       <c r="E430" s="12" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F430" s="5">
-        <v>2869184</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+        <v>419163</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="4">
         <v>2019</v>
       </c>
@@ -9505,13 +9505,13 @@
         <v>5</v>
       </c>
       <c r="E431" s="12" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F431" s="5">
-        <v>1475491</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2869184</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="4">
         <v>2019</v>
       </c>
@@ -9525,13 +9525,13 @@
         <v>5</v>
       </c>
       <c r="E432" s="12" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F432" s="5">
-        <v>1042048</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154483</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="4">
         <v>2019</v>
       </c>
@@ -9545,13 +9545,13 @@
         <v>5</v>
       </c>
       <c r="E433" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F433" s="5">
-        <v>510403</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4365125</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="4">
         <v>2019</v>
       </c>
@@ -9565,13 +9565,13 @@
         <v>5</v>
       </c>
       <c r="E434" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F434" s="5">
-        <v>419163</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83620371</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="4">
         <v>2019</v>
       </c>
@@ -9585,13 +9585,13 @@
         <v>5</v>
       </c>
       <c r="E435" s="12" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F435" s="5">
-        <v>154483</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1042048</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="4">
         <v>2019</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>25241026</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="4">
         <v>2019</v>
       </c>
@@ -9625,13 +9625,13 @@
         <v>5</v>
       </c>
       <c r="E437" s="12" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F437" s="5">
-        <v>9369352</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+        <v>310314</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="4">
         <v>2019</v>
       </c>
@@ -9645,13 +9645,13 @@
         <v>5</v>
       </c>
       <c r="E438" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F438" s="5">
-        <v>2186424</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+        <v>875111</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="4">
         <v>2019</v>
       </c>
@@ -9665,13 +9665,13 @@
         <v>5</v>
       </c>
       <c r="E439" s="12" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F439" s="5">
-        <v>875111</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9369352</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="4">
         <v>2019</v>
       </c>
@@ -9685,13 +9685,13 @@
         <v>5</v>
       </c>
       <c r="E440" s="12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F440" s="5">
-        <v>818684</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188587</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="4">
         <v>2019</v>
       </c>
@@ -9705,13 +9705,13 @@
         <v>5</v>
       </c>
       <c r="E441" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F441" s="5">
-        <v>310314</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70736</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="4">
         <v>2019</v>
       </c>
@@ -9725,13 +9725,13 @@
         <v>5</v>
       </c>
       <c r="E442" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F442" s="5">
-        <v>188587</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17022</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="4">
         <v>2019</v>
       </c>
@@ -9745,13 +9745,13 @@
         <v>5</v>
       </c>
       <c r="E443" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F443" s="5">
-        <v>70736</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39777</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="4">
         <v>2019</v>
       </c>
@@ -9765,13 +9765,13 @@
         <v>5</v>
       </c>
       <c r="E444" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F444" s="5">
-        <v>39777</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2186424</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="4">
         <v>2019</v>
       </c>
@@ -9785,13 +9785,13 @@
         <v>5</v>
       </c>
       <c r="E445" s="12" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F445" s="5">
-        <v>17022</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+        <v>818684</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="4">
         <v>2019</v>
       </c>
@@ -9805,13 +9805,13 @@
         <v>5</v>
       </c>
       <c r="E446" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F446" s="5">
-        <v>57985151</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3418111</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="4">
         <v>2019</v>
       </c>
@@ -9825,13 +9825,13 @@
         <v>5</v>
       </c>
       <c r="E447" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F447" s="5">
-        <v>29497516</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1519283</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="4">
         <v>2019</v>
       </c>
@@ -9845,13 +9845,13 @@
         <v>5</v>
       </c>
       <c r="E448" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F448" s="5">
-        <v>3418111</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57985151</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="4">
         <v>2019</v>
       </c>
@@ -9865,13 +9865,13 @@
         <v>5</v>
       </c>
       <c r="E449" s="12" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F449" s="5">
-        <v>2664679</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29497516</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="4">
         <v>2019</v>
       </c>
@@ -9885,13 +9885,13 @@
         <v>5</v>
       </c>
       <c r="E450" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F450" s="5">
-        <v>1519283</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+        <v>558317</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="4">
         <v>2019</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>1081713</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="4">
         <v>2019</v>
       </c>
@@ -9925,13 +9925,13 @@
         <v>5</v>
       </c>
       <c r="E452" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F452" s="5">
-        <v>949111</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+        <v>257963</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="4">
         <v>2019</v>
       </c>
@@ -9945,13 +9945,13 @@
         <v>5</v>
       </c>
       <c r="E453" s="12" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F453" s="5">
-        <v>558317</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-1104203</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="4">
         <v>2019</v>
       </c>
@@ -9965,13 +9965,13 @@
         <v>5</v>
       </c>
       <c r="E454" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F454" s="5">
-        <v>257963</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+        <v>949111</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="4">
         <v>2019</v>
       </c>
@@ -9985,13 +9985,13 @@
         <v>5</v>
       </c>
       <c r="E455" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F455" s="5">
-        <v>-1104203</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2664679</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="4">
         <v>2019</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>1337017</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="4">
         <v>2019</v>
       </c>
@@ -10025,13 +10025,13 @@
         <v>5</v>
       </c>
       <c r="E457" s="12" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F457" s="5">
-        <v>377478</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="4">
         <v>2019</v>
       </c>
@@ -10045,13 +10045,13 @@
         <v>5</v>
       </c>
       <c r="E458" s="12" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F458" s="5">
-        <v>359640</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-967</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="4">
         <v>2019</v>
       </c>
@@ -10065,13 +10065,13 @@
         <v>5</v>
       </c>
       <c r="E459" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F459" s="5">
-        <v>147287</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66463</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="4">
         <v>2019</v>
       </c>
@@ -10085,13 +10085,13 @@
         <v>5</v>
       </c>
       <c r="E460" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F460" s="5">
-        <v>66463</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="4">
         <v>2019</v>
       </c>
@@ -10105,13 +10105,13 @@
         <v>5</v>
       </c>
       <c r="E461" s="12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F461" s="5">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+        <v>147287</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="4">
         <v>2019</v>
       </c>
@@ -10125,13 +10125,13 @@
         <v>5</v>
       </c>
       <c r="E462" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F462" s="5">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+        <v>377478</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="4">
         <v>2019</v>
       </c>
@@ -10145,13 +10145,13 @@
         <v>5</v>
       </c>
       <c r="E463" s="12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F463" s="5">
-        <v>-967</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+        <v>359640</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="4">
         <v>2019</v>
       </c>
@@ -10165,13 +10165,13 @@
         <v>5</v>
       </c>
       <c r="E464" s="12" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F464" s="5">
-        <v>66018323</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7170102</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="4">
         <v>2019</v>
       </c>
@@ -10185,13 +10185,13 @@
         <v>5</v>
       </c>
       <c r="E465" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F465" s="5">
-        <v>15728673</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66018323</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="4">
         <v>2019</v>
       </c>
@@ -10205,13 +10205,13 @@
         <v>5</v>
       </c>
       <c r="E466" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F466" s="5">
-        <v>8866499</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15728673</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="4">
         <v>2019</v>
       </c>
@@ -10225,13 +10225,13 @@
         <v>5</v>
       </c>
       <c r="E467" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F467" s="5">
-        <v>7170102</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8866499</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="4">
         <v>2019</v>
       </c>
@@ -10245,13 +10245,13 @@
         <v>5</v>
       </c>
       <c r="E468" s="12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F468" s="5">
-        <v>6677261</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66195</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="4">
         <v>2019</v>
       </c>
@@ -10265,13 +10265,13 @@
         <v>5</v>
       </c>
       <c r="E469" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F469" s="5">
-        <v>1430907</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111333</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <v>2019</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>322190</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="4">
         <v>2019</v>
       </c>
@@ -10305,13 +10305,13 @@
         <v>5</v>
       </c>
       <c r="E471" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F471" s="5">
-        <v>111333</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19860</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="4">
         <v>2019</v>
       </c>
@@ -10325,13 +10325,13 @@
         <v>5</v>
       </c>
       <c r="E472" s="12" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F472" s="5">
-        <v>66195</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8538</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="4">
         <v>2019</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="4">
         <v>2019</v>
       </c>
@@ -10365,13 +10365,13 @@
         <v>5</v>
       </c>
       <c r="E474" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F474" s="5">
-        <v>19860</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6677261</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="4">
         <v>2019</v>
       </c>
@@ -10385,13 +10385,13 @@
         <v>5</v>
       </c>
       <c r="E475" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F475" s="5">
-        <v>8538</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1430907</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="4">
         <v>2019</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>26335390</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="4">
         <v>2019</v>
       </c>
@@ -10425,13 +10425,13 @@
         <v>5</v>
       </c>
       <c r="E477" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F477" s="5">
-        <v>20334491</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2641014</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="4">
         <v>2019</v>
       </c>
@@ -10445,13 +10445,13 @@
         <v>5</v>
       </c>
       <c r="E478" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F478" s="5">
-        <v>10030305</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20334491</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="4">
         <v>2019</v>
       </c>
@@ -10465,13 +10465,13 @@
         <v>5</v>
       </c>
       <c r="E479" s="12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F479" s="5">
-        <v>2641014</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10030305</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="4">
         <v>2019</v>
       </c>
@@ -10485,13 +10485,13 @@
         <v>5</v>
       </c>
       <c r="E480" s="12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F480" s="5">
-        <v>1877809</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="4">
         <v>2019</v>
       </c>
@@ -10505,13 +10505,13 @@
         <v>5</v>
       </c>
       <c r="E481" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F481" s="5">
-        <v>816462</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+        <v>516083</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="4">
         <v>2019</v>
       </c>
@@ -10525,13 +10525,13 @@
         <v>5</v>
       </c>
       <c r="E482" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F482" s="5">
-        <v>516083</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142828</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="4">
         <v>2019</v>
       </c>
@@ -10545,13 +10545,13 @@
         <v>5</v>
       </c>
       <c r="E483" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F483" s="5">
-        <v>142828</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37892</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="4">
         <v>2019</v>
       </c>
@@ -10565,13 +10565,13 @@
         <v>5</v>
       </c>
       <c r="E484" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F484" s="5">
-        <v>42024</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1877809</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="4">
         <v>2019</v>
       </c>
@@ -10585,13 +10585,13 @@
         <v>5</v>
       </c>
       <c r="E485" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F485" s="5">
-        <v>37892</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+        <v>816462</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
         <v>2019</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>58181629</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="4">
         <v>2019</v>
       </c>
@@ -10625,13 +10625,13 @@
         <v>5</v>
       </c>
       <c r="E487" s="12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F487" s="5">
-        <v>2243354</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1706011</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="4">
         <v>2019</v>
       </c>
@@ -10645,13 +10645,13 @@
         <v>5</v>
       </c>
       <c r="E488" s="12" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="F488" s="5">
-        <v>1706011</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2243354</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="4">
         <v>2019</v>
       </c>
@@ -10665,13 +10665,13 @@
         <v>5</v>
       </c>
       <c r="E489" s="12" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F489" s="5">
-        <v>1631098</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-6418</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="4">
         <v>2019</v>
       </c>
@@ -10685,13 +10685,13 @@
         <v>5</v>
       </c>
       <c r="E490" s="12" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F490" s="5">
-        <v>128386</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="4">
         <v>2019</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="4">
         <v>2019</v>
       </c>
@@ -10725,13 +10725,13 @@
         <v>5</v>
       </c>
       <c r="E492" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F492" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128386</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="4">
         <v>2019</v>
       </c>
@@ -10745,13 +10745,13 @@
         <v>5</v>
       </c>
       <c r="E493" s="12" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F493" s="5">
-        <v>-6418</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1631098</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="4">
         <v>2019</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>35375828</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="4">
         <v>2019</v>
       </c>
@@ -10785,13 +10785,13 @@
         <v>5</v>
       </c>
       <c r="E495" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F495" s="5">
-        <v>4162818</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+        <v>992427</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="4">
         <v>2019</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>1029254</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="4">
         <v>2019</v>
       </c>
@@ -10825,13 +10825,13 @@
         <v>5</v>
       </c>
       <c r="E497" s="12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F497" s="5">
-        <v>992427</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75488</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="4">
         <v>2019</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>285974</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="4">
         <v>2019</v>
       </c>
@@ -10865,13 +10865,13 @@
         <v>5</v>
       </c>
       <c r="E499" s="12" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F499" s="5">
-        <v>180138</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <v>2019</v>
       </c>
@@ -10885,13 +10885,13 @@
         <v>5</v>
       </c>
       <c r="E500" s="12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F500" s="5">
-        <v>75488</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180138</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="4">
         <v>2019</v>
       </c>
@@ -10905,13 +10905,18 @@
         <v>5</v>
       </c>
       <c r="E501" s="12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F501" s="5">
-        <v>43730</v>
+        <v>4162818</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F501" xr:uid="{BC86C428-3B2E-4A7C-B045-C3013F50B1FE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F501">
+      <sortCondition ref="B1:B501"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="1.28" right="0.41" top="1.02" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
